--- a/downloaded_files/CMPS457_Tutorial-35554.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35554.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -123,6 +123,15 @@
     <x:t>Aisha Tawfik Mahmoud Tawfik Esmat</x:t>
   </x:si>
   <x:si>
+    <x:t>1210252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله احمد عارف محمود الدسوقي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AbdAllah Ahmad Aref Mahmoud AlDessoukey</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230066</x:t>
   </x:si>
   <x:si>
@@ -247,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Mohab Yasser Alsayed Salem Albahrawy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند طارق ابراهيم المحلاوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohanad Tarek Ibrahim Elmahalawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210316</x:t>
@@ -389,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1100,7 +1118,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.9643949074</x:v>
+        <x:v>45921.9683693634</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45913.9643949074</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4444652431</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45906.4444652431</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.7096258912</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45916.0151541667</x:v>
+        <x:v>45914.7096258912</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45913.981759375</x:v>
+        <x:v>45916.0151541667</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4218610764</x:v>
+        <x:v>45913.981759375</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.8628979167</x:v>
+        <x:v>45909.4218610764</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.5641517361</x:v>
+        <x:v>45913.8628979167</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.6860668981</x:v>
+        <x:v>45912.5641517361</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45914.6860668981</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.7091989583</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45915.7091989583</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.6991275116</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4273542477</x:v>
+        <x:v>45921.9196888542</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45914.6991275116</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1647,70 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45909.4273542477</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45914.696887037</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35554.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35554.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Essam Elshahat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210044</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اسر تامر محمد وجدى محمد كامل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Asser Tamer Mohamed Wagdy</x:t>
   </x:si>
   <x:si>
     <x:t>1220116</x:t>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -862,7 +871,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45909.4166687847</x:v>
+        <x:v>45924.9479451736</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -894,7 +903,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4161777778</x:v>
+        <x:v>45909.4166687847</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -926,7 +935,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4144067477</x:v>
+        <x:v>45906.4161777778</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -958,7 +967,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.415290625</x:v>
+        <x:v>45906.4144067477</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -990,7 +999,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.6995616088</x:v>
+        <x:v>45909.415290625</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1022,7 +1031,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4141704051</x:v>
+        <x:v>45914.6995616088</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1054,7 +1063,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.3384221875</x:v>
+        <x:v>45906.4141704051</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1086,7 +1095,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.7091758102</x:v>
+        <x:v>45912.3384221875</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1118,7 +1127,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45921.9683693634</x:v>
+        <x:v>45914.7091758102</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1150,7 +1159,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45913.9643949074</x:v>
+        <x:v>45921.9683693634</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1182,7 +1191,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45913.9643949074</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1223,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4444652431</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1255,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45906.4444652431</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1287,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.7096258912</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1319,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45916.0151541667</x:v>
+        <x:v>45914.7096258912</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1351,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45913.981759375</x:v>
+        <x:v>45916.0151541667</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4218610764</x:v>
+        <x:v>45913.981759375</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45913.8628979167</x:v>
+        <x:v>45909.4218610764</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45912.5641517361</x:v>
+        <x:v>45913.8628979167</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.6860668981</x:v>
+        <x:v>45912.5641517361</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45914.6860668981</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.7091989583</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45915.7091989583</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45921.9196888542</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.6991275116</x:v>
+        <x:v>45921.9196888542</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4273542477</x:v>
+        <x:v>45914.6991275116</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1694,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45909.4273542477</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,6 +1720,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45914.696887037</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35554.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35554.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -141,15 +141,6 @@
     <x:t>AbdAllah Ahmad Aref Mahmoud AlDessoukey</x:t>
   </x:si>
   <x:si>
-    <x:t>1230066</x:t>
-  </x:si>
-  <x:si>
-    <x:t>على اشرف على حسن السنان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ali Ashraf Ali Hassan Elsanan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210019</x:t>
   </x:si>
   <x:si>
@@ -193,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Maged Amgad Rasmy Wadi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1220140</x:t>
@@ -416,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1191,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45913.9643949074</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.4444652431</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4444652431</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45914.7096258912</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.7096258912</x:v>
+        <x:v>45916.0151541667</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45916.0151541667</x:v>
+        <x:v>45909.4218610764</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.981759375</x:v>
+        <x:v>45913.8628979167</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4218610764</x:v>
+        <x:v>45912.5641517361</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.8628979167</x:v>
+        <x:v>45914.6860668981</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.5641517361</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.6860668981</x:v>
+        <x:v>45915.7091989583</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.7091989583</x:v>
+        <x:v>45921.9196888542</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45914.6991275116</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45921.9196888542</x:v>
+        <x:v>45909.4273542477</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1653,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.6991275116</x:v>
+        <x:v>45914.696887037</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1688,70 +1670,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45909.4273542477</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45914.696887037</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35554.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35554.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,15 +69,6 @@
     <x:t>Alaa Haytham Mahmoud Abd el aziz</x:t>
   </x:si>
   <x:si>
-    <x:t>4220112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>انس علاء محمد ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anas Alaa Mohamed  Ibrahim</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210207</x:t>
   </x:si>
   <x:si>
@@ -150,15 +141,6 @@
     <x:t>Ali Mohamed Abdelghani Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>4220139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد محمد على الشريف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ahmed Mohamed Ali Alsherif</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210266</x:t>
   </x:si>
   <x:si>
@@ -193,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Mohammed ahmed sayed mohamed awad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230239</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد ايهاب سعد عبدالقادر خليل ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Ehab Saad Abdelkader Khalil Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1210073</x:t>
@@ -398,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -917,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4161777778</x:v>
+        <x:v>45906.4144067477</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -949,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4144067477</x:v>
+        <x:v>45909.415290625</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -981,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.415290625</x:v>
+        <x:v>45914.6995616088</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1013,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.6995616088</x:v>
+        <x:v>45906.4141704051</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1045,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4141704051</x:v>
+        <x:v>45912.3384221875</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.3384221875</x:v>
+        <x:v>45914.7091758102</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.7091758102</x:v>
+        <x:v>45921.9683693634</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45921.9683693634</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4444652431</x:v>
+        <x:v>45914.7096258912</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45916.0151541667</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.7096258912</x:v>
+        <x:v>45909.4218610764</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45916.0151541667</x:v>
+        <x:v>45912.5641517361</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4218610764</x:v>
+        <x:v>45914.6860668981</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45913.8628979167</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.5641517361</x:v>
+        <x:v>45915.7091989583</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.6860668981</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45921.9196888542</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.7091989583</x:v>
+        <x:v>45914.6991275116</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45909.4273542477</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45921.9196888542</x:v>
+        <x:v>45914.696887037</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1574,102 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45914.6991275116</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45909.4273542477</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45914.696887037</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35554.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35554.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,15 +58,6 @@
   </x:si>
   <x:si>
     <x:t>Asser Tamer Mohamed Wagdy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220116</x:t>
-  </x:si>
-  <x:si>
-    <x:t>الاء هيثم محمود عبد العزيز</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alaa Haytham Mahmoud Abd el aziz</x:t>
   </x:si>
   <x:si>
     <x:t>1210207</x:t>
@@ -371,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -858,7 +849,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4166687847</x:v>
+        <x:v>45906.4144067477</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -890,7 +881,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4144067477</x:v>
+        <x:v>45909.415290625</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -922,7 +913,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.415290625</x:v>
+        <x:v>45914.6995616088</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -954,7 +945,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.6995616088</x:v>
+        <x:v>45906.4141704051</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -986,7 +977,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4141704051</x:v>
+        <x:v>45912.3384221875</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1018,7 +1009,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.3384221875</x:v>
+        <x:v>45914.7091758102</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1050,7 +1041,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.7091758102</x:v>
+        <x:v>45921.9683693634</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1082,7 +1073,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45921.9683693634</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1105,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1137,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45914.7096258912</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1169,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.7096258912</x:v>
+        <x:v>45916.0151541667</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45916.0151541667</x:v>
+        <x:v>45909.4218610764</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4218610764</x:v>
+        <x:v>45912.5641517361</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.5641517361</x:v>
+        <x:v>45914.6860668981</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.6860668981</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45915.7091989583</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.7091989583</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45921.9196888542</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.9196888542</x:v>
+        <x:v>45914.6991275116</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.6991275116</x:v>
+        <x:v>45909.4273542477</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1489,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4273542477</x:v>
+        <x:v>45914.696887037</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1515,38 +1506,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45914.696887037</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35554.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35554.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,6 +42,15 @@
     <x:t>Adam Mohamed Abdelmoneim Amin El Masry</x:t>
   </x:si>
   <x:si>
+    <x:t>1210186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد تامر احمد فهيم دخان</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Tamer Ahmed Fahim Dokhan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210346</x:t>
   </x:si>
   <x:si>
@@ -87,6 +96,15 @@
     <x:t>Khaled Ali Fathi Ibrahim</x:t>
   </x:si>
   <x:si>
+    <x:t>1210008</x:t>
+  </x:si>
+  <x:si>
+    <x:t>روان ياسر هاشم محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rawan yasser hashem</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210137</x:t>
   </x:si>
   <x:si>
@@ -96,6 +114,15 @@
     <x:t>Ziad Hesham Fahmy Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمي محمود محمد احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Mahmoud Mohamed Ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>2230012</x:t>
   </x:si>
   <x:si>
@@ -168,15 +195,6 @@
     <x:t>Mohammed ahmed sayed mohamed awad</x:t>
   </x:si>
   <x:si>
-    <x:t>1210073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد توفيق اسماعيل توفيق اسماعيل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Tawfik Ismail Tawfik</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210298</x:t>
   </x:si>
   <x:si>
@@ -202,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Usama Abdelhameed Tawfeek Abdelhameed Nassar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ملك محمد حلمى محمود الكشك</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Malak Mohamed Helmy Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1210312</x:t>
@@ -362,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -785,7 +812,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45909.4150233796</x:v>
+        <x:v>45928.9172696759</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -817,7 +844,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45924.9479451736</x:v>
+        <x:v>45909.4150233796</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -849,7 +876,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4144067477</x:v>
+        <x:v>45924.9479451736</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -881,7 +908,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.415290625</x:v>
+        <x:v>45906.4144067477</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -913,7 +940,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.6995616088</x:v>
+        <x:v>45909.415290625</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -945,7 +972,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4141704051</x:v>
+        <x:v>45914.6995616088</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,7 +1004,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45912.3384221875</x:v>
+        <x:v>45928.9310135069</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +1036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.7091758102</x:v>
+        <x:v>45906.4141704051</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45921.9683693634</x:v>
+        <x:v>45928.9310135069</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45912.3384221875</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45914.7091758102</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.7096258912</x:v>
+        <x:v>45921.9683693634</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45916.0151541667</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.4218610764</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.5641517361</x:v>
+        <x:v>45914.7096258912</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.6860668981</x:v>
+        <x:v>45916.0151541667</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45909.4218610764</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.7091989583</x:v>
+        <x:v>45914.6860668981</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45921.9196888542</x:v>
+        <x:v>45915.7091989583</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.6991275116</x:v>
+        <x:v>45928.9310135069</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4273542477</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1489,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45921.9196888542</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1506,6 +1533,102 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45914.6991275116</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45909.4273542477</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45914.696887037</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35554.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35554.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Fatma Gamal Zeinelabdeen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم مجدى منير محمود العكام</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim Magdy Mounir</x:t>
   </x:si>
   <x:si>
     <x:t>1210375</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1292,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45916.0151541667</x:v>
+        <x:v>45929.4225984954</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4218610764</x:v>
+        <x:v>45916.0151541667</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.6860668981</x:v>
+        <x:v>45909.4218610764</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45914.6860668981</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45915.7091989583</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45928.9310135069</x:v>
+        <x:v>45915.7091989583</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45928.9310135069</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.9196888542</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.6991275116</x:v>
+        <x:v>45921.9196888542</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4273542477</x:v>
+        <x:v>45914.6991275116</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.696887037</x:v>
+        <x:v>45909.4273542477</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45914.696887037</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35554.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35554.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -283,6 +283,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef ahmed abdelbar hammad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210337</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ساهر انور عبدالهادي احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOUSSIF SAHER ANWAR ABDELHADY AHMED</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1670,6 +1679,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45931.4514591088</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35554.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35554.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,15 +105,6 @@
     <x:t>Rawan yasser hashem</x:t>
   </x:si>
   <x:si>
-    <x:t>1210137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>زياد هشام فهمي محمد سليمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ziad Hesham Fahmy Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210011</x:t>
   </x:si>
   <x:si>
@@ -247,15 +238,6 @@
   </x:si>
   <x:si>
     <x:t>Mohab Yasser Alsayed Salem Albahrawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210313</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهند طارق ابراهيم المحلاوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohanad Tarek Ibrahim Elmahalawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210316</x:t>
@@ -407,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1054,7 +1036,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4141704051</x:v>
+        <x:v>45928.9310135069</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1086,7 +1068,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45928.9310135069</x:v>
+        <x:v>45912.3384221875</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1118,7 +1100,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.3384221875</x:v>
+        <x:v>45914.7091758102</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1150,7 +1132,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.7091758102</x:v>
+        <x:v>45921.9683693634</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1182,7 +1164,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45921.9683693634</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1196,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45918.1419658218</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.1419658218</x:v>
+        <x:v>45914.7096258912</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.7096258912</x:v>
+        <x:v>45929.4225984954</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45929.4225984954</x:v>
+        <x:v>45916.0151541667</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45916.0151541667</x:v>
+        <x:v>45909.4218610764</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4218610764</x:v>
+        <x:v>45914.6860668981</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.6860668981</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45915.7091989583</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.7091989583</x:v>
+        <x:v>45928.9310135069</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45928.9310135069</x:v>
+        <x:v>45914.7085244213</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.7085244213</x:v>
+        <x:v>45914.6991275116</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45921.9196888542</x:v>
+        <x:v>45909.4273542477</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45914.6991275116</x:v>
+        <x:v>45914.696887037</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1612,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4273542477</x:v>
+        <x:v>45931.4514591088</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1647,70 +1629,6 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45914.696887037</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45931.4514591088</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35554.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35554.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -265,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef ahmed abdelbar hammad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210335</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ايهاب احمد البدوي سالم محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Ehab Ahmed ElBadawy Salem Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1210337</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45931.4514591088</x:v>
+        <x:v>45936.5834293981</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45931.4514591088</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
